--- a/Data/EC/NIT-9007128392.xlsx
+++ b/Data/EC/NIT-9007128392.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1962036F-F4E8-4EF6-B677-D582C969723F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E0C9EA-DB39-489C-9602-D68F8A158DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9A57284F-12C5-4BF2-A51F-B1B262ACBE52}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{52769DFE-D073-4641-9297-0450AC0FCDF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="63">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,202 +71,127 @@
     <t>ALIYAKIR GONZALEZ DONADO</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1047500632</t>
+  </si>
+  <si>
+    <t>ANDRES DAVID PEREZ TAMARA</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
     <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047500632</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID PEREZ TAMARA</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -365,7 +290,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -378,9 +305,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -580,23 +505,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,10 +549,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -680,7 +605,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE8CDA9E-170C-8BBB-F79D-286F0B25D741}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F21371D-69F7-4179-09FE-313BF48AA5B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1031,8 +956,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE3F6555-121A-418E-AE7A-E96CCF013B4E}">
-  <dimension ref="B2:J86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E8F671-80B1-4FBA-BC74-EB27FE01222A}">
+  <dimension ref="B2:J61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1056,7 +981,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1101,7 +1026,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1133,12 +1058,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1970839</v>
+        <v>1102402</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1149,17 +1074,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1186,13 +1111,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1209,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>26041</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1232,7 +1157,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1255,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1278,7 +1203,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1301,7 +1226,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1324,7 +1249,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1347,7 +1272,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1370,7 +1295,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1393,7 +1318,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1416,7 +1341,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1439,7 +1364,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1462,7 +1387,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1485,7 +1410,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1807,7 +1732,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1830,7 +1755,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1844,19 +1769,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1873,10 +1798,10 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1896,10 +1821,10 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1919,10 +1844,10 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1942,10 +1867,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1965,10 +1890,10 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1988,10 +1913,10 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2011,10 +1936,10 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2034,10 +1959,10 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2057,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2080,10 +2005,10 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2093,631 +2018,56 @@
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B55" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="17" t="s">
+      <c r="B55" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="18">
-        <v>25749</v>
-      </c>
-      <c r="G55" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B56" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F56" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G56" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B57" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F57" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G57" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C58" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G58" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F59" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G59" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
+      <c r="F55" s="24">
+        <v>26041</v>
+      </c>
+      <c r="G55" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G60" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
+      <c r="B60" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="32"/>
+      <c r="H60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F61" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G61" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G62" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="16" t="s">
+      <c r="B61" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F63" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G63" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F64" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G64" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="16" t="s">
+      <c r="C61" s="32"/>
+      <c r="H61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F65" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G65" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B66" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G66" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F67" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G67" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F68" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G68" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G69" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B70" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D70" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G70" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F71" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G71" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B72" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F72" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G72" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B73" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D73" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F73" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G73" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F74" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G74" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="F75" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G75" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D76" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G76" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="F77" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G77" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B78" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F78" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G78" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D79" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E79" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F79" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G79" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E80" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="24">
-        <v>31249</v>
-      </c>
-      <c r="G80" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="26"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" s="32"/>
-      <c r="H85" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="32"/>
-      <c r="H86" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H60:J60"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
